--- a/machine_learning_and_stats/misc/gauss_distribution.xlsx
+++ b/machine_learning_and_stats/misc/gauss_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1102E9D9-EA75-43AA-B659-D1FC267F4969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71C5EA-7048-4B51-BE7F-6B2F7AAE1C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3173,15 +3173,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:colOff>574674</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>577849</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3245,15 +3245,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>631825</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
